--- a/Docs/Program_Docs/keyword.xlsx
+++ b/Docs/Program_Docs/keyword.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,13 +11,200 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以展带会 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出展会的重要性，带动客户参会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出会议的重要性，带动客户参展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参会报名用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以会带展的首页图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称，宣传语，主题，时间，地点等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现活动盛大的一大图或者多图拼成的大图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页数字描述规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和下一页的数字描述有什么区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权威机构或者权威vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主办方、指导单位、支持机构、协办机构、战略合作单位、承办单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以会带展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以会带展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了首页外每页出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间，地点等基本会议信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年参会数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展出面积，专业观众，专业听众，参会代表，参会商，来自国家，技术讲座，高端峰会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是去年一年这个主题的会议数据，还是所有cdmc组织的会议数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testimonials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议要颁发的奖项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendee Breakdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往届权威参会公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了体现活动的权威及规模，需要列出往届的参会代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logo（页头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组委会介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是图还是文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +217,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +259,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -67,6 +276,23 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H21" totalsRowShown="0">
+  <autoFilter ref="A1:H21"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Category"/>
+    <tableColumn id="4" name="位置"/>
+    <tableColumn id="5" name="问题"/>
+    <tableColumn id="6" name="列6"/>
+    <tableColumn id="7" name="列7"/>
+    <tableColumn id="8" name="列8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,15 +580,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="72.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="54.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
